--- a/data/trans_dic/P14_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P14_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,11</t>
+          <t>3,16; 6,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 16,31</t>
+          <t>11,13; 16,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,53</t>
+          <t>4,3; 7,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 15,35</t>
+          <t>10,91; 15,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,24</t>
+          <t>4,11; 6,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 15,08</t>
+          <t>11,51; 14,92</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,22</t>
+          <t>2,66; 6,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,45; 16,78</t>
+          <t>10,52; 17,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,02</t>
+          <t>2,13; 5,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,58; 14,75</t>
+          <t>9,71; 14,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,11</t>
+          <t>2,69; 5,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,7</t>
+          <t>10,64; 14,65</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,35</t>
+          <t>0,72; 7,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,25</t>
+          <t>3,44; 11,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,39</t>
+          <t>0,75; 6,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 16,17</t>
+          <t>6,78; 16,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,27</t>
+          <t>1,3; 5,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,69</t>
+          <t>6,34; 12,29</t>
         </is>
       </c>
     </row>
@@ -841,27 +842,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,31</t>
+          <t>3,13; 5,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,48</t>
+          <t>10,78; 14,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,56</t>
+          <t>3,56; 5,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,04</t>
+          <t>10,9; 14,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,07</t>
+          <t>3,6; 5,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 13,69</t>
+          <t>11,31; 13,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74076</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>219210</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>104833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>237009</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>178909</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>456219</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52176; 107657</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>183114; 268023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77852; 137662</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>198539; 284617</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>142242; 225879</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>398932; 516921</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55329</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>183382</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47462</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>164922</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>102791</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>348304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36540; 85303</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>145125; 235308</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29606; 71094</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>133089; 202624</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>74507; 139664</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>292551; 402864</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12745</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28740</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9949</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>44530</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22694</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3042; 30339</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14479; 49784</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3093; 27304</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27775; 67579</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10863; 43958</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52626; 102072</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>142150</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>431332</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>162245</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>446460</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>304394</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>877793</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>107971; 181130</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>371553; 496884</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>128575; 203063</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>392470; 505888</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>254538; 364545</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>796946; 962385</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>